--- a/SiteCore/wwwroot/Template/TMK/Report.xlsx
+++ b/SiteCore/wwwroot/Template/TMK/Report.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="30" windowWidth="23895" windowHeight="9990"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
-    <sheet name="Лист2" sheetId="2" r:id="rId2"/>
-    <sheet name="Лист3" sheetId="3" r:id="rId3"/>
+    <sheet name="Отчет 1" sheetId="1" r:id="rId1"/>
+    <sheet name="Отчет 2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="65">
   <si>
     <t>Субъект Российской федерации</t>
   </si>
@@ -169,13 +168,55 @@
   </si>
   <si>
     <t>Количество страховых случаев с применением рекомендаций медицинских работников НМИЦ</t>
+  </si>
+  <si>
+    <t>1.4.3.</t>
+  </si>
+  <si>
+    <t>1.6.1.</t>
+  </si>
+  <si>
+    <t>1.9.</t>
+  </si>
+  <si>
+    <t>1.10.</t>
+  </si>
+  <si>
+    <t>2.1.</t>
+  </si>
+  <si>
+    <t>2.17.</t>
+  </si>
+  <si>
+    <t>3.1.2.</t>
+  </si>
+  <si>
+    <t>3.1.3.</t>
+  </si>
+  <si>
+    <t>3.1.4.</t>
+  </si>
+  <si>
+    <t>3.1.5.</t>
+  </si>
+  <si>
+    <t>3.3.</t>
+  </si>
+  <si>
+    <t>3.11.</t>
+  </si>
+  <si>
+    <t>3.13.</t>
+  </si>
+  <si>
+    <t>%</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -213,7 +254,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -304,13 +345,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -325,11 +403,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -341,6 +416,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -349,6 +433,33 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -358,6 +469,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -436,6 +552,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -470,6 +587,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -645,14 +763,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BE5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:I3"/>
+    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N64" sqref="N64"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="33.5703125" customWidth="1"/>
     <col min="3" max="3" width="15.7109375" customWidth="1"/>
@@ -664,180 +782,180 @@
     <col min="9" max="9" width="15.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:57" ht="54" customHeight="1">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:57" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="H1" s="11"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="9" t="s">
+      <c r="H1" s="13"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9"/>
-      <c r="M1" s="9"/>
-      <c r="N1" s="9"/>
-      <c r="O1" s="9"/>
-      <c r="P1" s="9" t="s">
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="8"/>
+      <c r="O1" s="8"/>
+      <c r="P1" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="Q1" s="9"/>
-      <c r="R1" s="9"/>
-      <c r="S1" s="9"/>
-      <c r="T1" s="9"/>
-      <c r="U1" s="9"/>
-      <c r="V1" s="9" t="s">
+      <c r="Q1" s="8"/>
+      <c r="R1" s="8"/>
+      <c r="S1" s="8"/>
+      <c r="T1" s="8"/>
+      <c r="U1" s="8"/>
+      <c r="V1" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="W1" s="9"/>
-      <c r="X1" s="9"/>
-      <c r="Y1" s="9"/>
-      <c r="Z1" s="9"/>
-      <c r="AA1" s="9"/>
-      <c r="AB1" s="9" t="s">
+      <c r="W1" s="8"/>
+      <c r="X1" s="8"/>
+      <c r="Y1" s="8"/>
+      <c r="Z1" s="8"/>
+      <c r="AA1" s="8"/>
+      <c r="AB1" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="AC1" s="9"/>
-      <c r="AD1" s="9"/>
-      <c r="AE1" s="9"/>
-      <c r="AF1" s="8" t="s">
+      <c r="AC1" s="8"/>
+      <c r="AD1" s="8"/>
+      <c r="AE1" s="8"/>
+      <c r="AF1" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="AG1" s="8"/>
-      <c r="AH1" s="8"/>
-      <c r="AI1" s="8"/>
-      <c r="AJ1" s="8"/>
-      <c r="AK1" s="8"/>
-      <c r="AL1" s="8"/>
-      <c r="AM1" s="8"/>
-      <c r="AN1" s="8"/>
-      <c r="AO1" s="8"/>
-      <c r="AP1" s="8"/>
-      <c r="AQ1" s="8"/>
-      <c r="AR1" s="8"/>
-      <c r="AS1" s="8"/>
-      <c r="AT1" s="8"/>
-      <c r="AU1" s="8"/>
-      <c r="AV1" s="8"/>
-      <c r="AW1" s="8"/>
-      <c r="AX1" s="8"/>
-      <c r="AY1" s="8"/>
-      <c r="AZ1" s="8"/>
-      <c r="BA1" s="8"/>
-      <c r="BB1" s="8"/>
-      <c r="BC1" s="8"/>
-      <c r="BD1" s="8"/>
-      <c r="BE1" s="8"/>
+      <c r="AG1" s="7"/>
+      <c r="AH1" s="7"/>
+      <c r="AI1" s="7"/>
+      <c r="AJ1" s="7"/>
+      <c r="AK1" s="7"/>
+      <c r="AL1" s="7"/>
+      <c r="AM1" s="7"/>
+      <c r="AN1" s="7"/>
+      <c r="AO1" s="7"/>
+      <c r="AP1" s="7"/>
+      <c r="AQ1" s="7"/>
+      <c r="AR1" s="7"/>
+      <c r="AS1" s="7"/>
+      <c r="AT1" s="7"/>
+      <c r="AU1" s="7"/>
+      <c r="AV1" s="7"/>
+      <c r="AW1" s="7"/>
+      <c r="AX1" s="7"/>
+      <c r="AY1" s="7"/>
+      <c r="AZ1" s="7"/>
+      <c r="BA1" s="7"/>
+      <c r="BB1" s="7"/>
+      <c r="BC1" s="7"/>
+      <c r="BD1" s="7"/>
+      <c r="BE1" s="7"/>
     </row>
-    <row r="2" spans="1:57" ht="60" customHeight="1">
-      <c r="A2" s="9"/>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="4" t="s">
+    <row r="2" spans="1:57" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="8"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="J2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
-      <c r="M2" s="7" t="s">
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="N2" s="7"/>
-      <c r="O2" s="7"/>
-      <c r="P2" s="7" t="s">
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
+      <c r="P2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="Q2" s="7"/>
-      <c r="R2" s="7"/>
-      <c r="S2" s="7" t="s">
+      <c r="Q2" s="6"/>
+      <c r="R2" s="6"/>
+      <c r="S2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="T2" s="7"/>
-      <c r="U2" s="7"/>
-      <c r="V2" s="7" t="s">
+      <c r="T2" s="6"/>
+      <c r="U2" s="6"/>
+      <c r="V2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="W2" s="7"/>
-      <c r="X2" s="7"/>
-      <c r="Y2" s="7" t="s">
+      <c r="W2" s="6"/>
+      <c r="X2" s="6"/>
+      <c r="Y2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="Z2" s="7"/>
-      <c r="AA2" s="7"/>
-      <c r="AB2" s="7" t="s">
+      <c r="Z2" s="6"/>
+      <c r="AA2" s="6"/>
+      <c r="AB2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="AC2" s="7"/>
-      <c r="AD2" s="7" t="s">
+      <c r="AC2" s="6"/>
+      <c r="AD2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="AE2" s="7"/>
-      <c r="AF2" s="8"/>
-      <c r="AG2" s="8"/>
-      <c r="AH2" s="8"/>
-      <c r="AI2" s="8"/>
-      <c r="AJ2" s="8"/>
-      <c r="AK2" s="8"/>
-      <c r="AL2" s="8"/>
-      <c r="AM2" s="8"/>
-      <c r="AN2" s="8"/>
-      <c r="AO2" s="8"/>
-      <c r="AP2" s="8"/>
-      <c r="AQ2" s="8"/>
-      <c r="AR2" s="8"/>
-      <c r="AS2" s="8"/>
-      <c r="AT2" s="8"/>
-      <c r="AU2" s="8"/>
-      <c r="AV2" s="8"/>
-      <c r="AW2" s="8"/>
-      <c r="AX2" s="8"/>
-      <c r="AY2" s="8"/>
-      <c r="AZ2" s="8"/>
-      <c r="BA2" s="8"/>
-      <c r="BB2" s="8"/>
-      <c r="BC2" s="8"/>
-      <c r="BD2" s="8"/>
-      <c r="BE2" s="8"/>
+      <c r="AE2" s="6"/>
+      <c r="AF2" s="7"/>
+      <c r="AG2" s="7"/>
+      <c r="AH2" s="7"/>
+      <c r="AI2" s="7"/>
+      <c r="AJ2" s="7"/>
+      <c r="AK2" s="7"/>
+      <c r="AL2" s="7"/>
+      <c r="AM2" s="7"/>
+      <c r="AN2" s="7"/>
+      <c r="AO2" s="7"/>
+      <c r="AP2" s="7"/>
+      <c r="AQ2" s="7"/>
+      <c r="AR2" s="7"/>
+      <c r="AS2" s="7"/>
+      <c r="AT2" s="7"/>
+      <c r="AU2" s="7"/>
+      <c r="AV2" s="7"/>
+      <c r="AW2" s="7"/>
+      <c r="AX2" s="7"/>
+      <c r="AY2" s="7"/>
+      <c r="AZ2" s="7"/>
+      <c r="BA2" s="7"/>
+      <c r="BB2" s="7"/>
+      <c r="BC2" s="7"/>
+      <c r="BD2" s="7"/>
+      <c r="BE2" s="7"/>
     </row>
-    <row r="3" spans="1:57">
-      <c r="A3" s="9"/>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
+    <row r="3" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="A3" s="8"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
       <c r="J3" s="2" t="s">
         <v>8</v>
       </c>
@@ -983,13 +1101,13 @@
         <v>47</v>
       </c>
     </row>
-    <row r="4" spans="1:57" s="1" customFormat="1">
-      <c r="A4" s="9"/>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="5"/>
+    <row r="4" spans="1:57" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="8"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="10"/>
       <c r="G4" s="2" t="s">
         <v>19</v>
       </c>
@@ -1144,15 +1262,15 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:57" s="1" customFormat="1">
+    <row r="5" spans="1:57" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="6"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="11"/>
       <c r="G5" s="2">
         <v>1</v>
       </c>
@@ -1309,6 +1427,13 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="S2:U2"/>
+    <mergeCell ref="V2:X2"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="I2:I3"/>
     <mergeCell ref="Y2:AA2"/>
     <mergeCell ref="AF1:BE2"/>
     <mergeCell ref="A1:A4"/>
@@ -1325,13 +1450,6 @@
     <mergeCell ref="F1:F5"/>
     <mergeCell ref="M2:O2"/>
     <mergeCell ref="P2:R2"/>
-    <mergeCell ref="S2:U2"/>
-    <mergeCell ref="V2:X2"/>
-    <mergeCell ref="J2:L2"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="G1:I1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1339,25 +1457,457 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AP4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="33.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" customWidth="1"/>
+    <col min="5" max="5" width="23.42578125" customWidth="1"/>
+    <col min="6" max="6" width="26" customWidth="1"/>
+    <col min="7" max="7" width="18.140625" customWidth="1"/>
+    <col min="8" max="8" width="14.140625" customWidth="1"/>
+    <col min="9" max="9" width="15.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:42" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="H1" s="13"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="N1" s="17"/>
+      <c r="O1" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="17"/>
+      <c r="Q1" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="R1" s="17"/>
+      <c r="S1" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="T1" s="21"/>
+      <c r="U1" s="21"/>
+      <c r="V1" s="21"/>
+      <c r="W1" s="21"/>
+      <c r="X1" s="21"/>
+      <c r="Y1" s="21"/>
+      <c r="Z1" s="21"/>
+      <c r="AA1" s="21"/>
+      <c r="AB1" s="21"/>
+      <c r="AC1" s="21"/>
+      <c r="AD1" s="21"/>
+      <c r="AE1" s="21"/>
+      <c r="AF1" s="21"/>
+      <c r="AG1" s="21"/>
+      <c r="AH1" s="21"/>
+      <c r="AI1" s="21"/>
+      <c r="AJ1" s="21"/>
+      <c r="AK1" s="21"/>
+      <c r="AL1" s="21"/>
+      <c r="AM1" s="21"/>
+      <c r="AN1" s="21"/>
+      <c r="AO1" s="21"/>
+      <c r="AP1" s="22"/>
+    </row>
+    <row r="2" spans="1:42" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="10"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="K2" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="L2" s="19"/>
+      <c r="M2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q2" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="R2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="S2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="T2" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="U2" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="V2" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="W2" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="X2" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y2" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z2" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="AA2" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="AB2" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="AC2" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="AD2" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE2" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF2" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH2" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="AI2" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ2" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK2" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL2" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="AM2" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN2" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO2" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="AP2" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3" spans="1:42" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="11"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="M3" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="N3" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="O3" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="P3" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q3" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="R3" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="S3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="T3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="U3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="V3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="W3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="X3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="AA3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="AB3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="AC3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="AD3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="AE3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="AF3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="AG3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="AH3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="AI3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="AJ3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="AK3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="AL3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="AM3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="AN3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="AO3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="AP3" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:42" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="5">
+        <v>1</v>
+      </c>
+      <c r="H4" s="5">
+        <v>2</v>
+      </c>
+      <c r="I4" s="5">
+        <v>3</v>
+      </c>
+      <c r="J4" s="5">
+        <v>4</v>
+      </c>
+      <c r="K4" s="5">
+        <v>5</v>
+      </c>
+      <c r="L4" s="5">
+        <v>6</v>
+      </c>
+      <c r="M4" s="5">
+        <v>7</v>
+      </c>
+      <c r="N4" s="5">
+        <v>8</v>
+      </c>
+      <c r="O4" s="5">
+        <v>9</v>
+      </c>
+      <c r="P4" s="5">
+        <v>10</v>
+      </c>
+      <c r="Q4" s="5">
+        <v>11</v>
+      </c>
+      <c r="R4" s="5">
+        <v>12</v>
+      </c>
+      <c r="S4" s="5">
+        <v>13</v>
+      </c>
+      <c r="T4" s="5">
+        <v>14</v>
+      </c>
+      <c r="U4" s="5">
+        <v>15</v>
+      </c>
+      <c r="V4" s="5">
+        <v>16</v>
+      </c>
+      <c r="W4" s="5">
+        <v>17</v>
+      </c>
+      <c r="X4" s="5">
+        <v>18</v>
+      </c>
+      <c r="Y4" s="5">
+        <v>19</v>
+      </c>
+      <c r="Z4" s="5">
+        <v>20</v>
+      </c>
+      <c r="AA4" s="5">
+        <v>21</v>
+      </c>
+      <c r="AB4" s="5">
+        <v>22</v>
+      </c>
+      <c r="AC4" s="5">
+        <v>23</v>
+      </c>
+      <c r="AD4" s="5">
+        <v>24</v>
+      </c>
+      <c r="AE4" s="5">
+        <v>25</v>
+      </c>
+      <c r="AF4" s="5">
+        <v>26</v>
+      </c>
+      <c r="AG4" s="5">
+        <v>27</v>
+      </c>
+      <c r="AH4" s="5">
+        <v>28</v>
+      </c>
+      <c r="AI4" s="5">
+        <v>29</v>
+      </c>
+      <c r="AJ4" s="5">
+        <v>30</v>
+      </c>
+      <c r="AK4" s="5">
+        <v>31</v>
+      </c>
+      <c r="AL4" s="5">
+        <v>32</v>
+      </c>
+      <c r="AM4" s="5">
+        <v>33</v>
+      </c>
+      <c r="AN4" s="5">
+        <v>34</v>
+      </c>
+      <c r="AO4" s="5">
+        <v>35</v>
+      </c>
+      <c r="AP4" s="5">
+        <v>36</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="B1:B4"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="S1:AP1"/>
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="F1:F4"/>
+    <mergeCell ref="E1:E4"/>
+    <mergeCell ref="D1:D4"/>
+    <mergeCell ref="C1:C4"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>